--- a/Demos/ISACANTX/Nessus/Vulns.xlsx
+++ b/Demos/ISACANTX/Nessus/Vulns.xlsx
@@ -5,11 +5,11 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1PivotTable" sheetId="2" r:id="rId3"/>
+    <sheet name="VulnScan" sheetId="1" r:id="rId1"/>
+    <sheet name="VulnScanPivotTable" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$A$1:$E$5225</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'VulnScan'!$A$1:$E$5225</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
   <pivotCaches>
@@ -4420,7 +4420,37 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <d:dxf xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <font>
+        <color rgb="ff000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="ffff0000"/>
+        </patternFill>
+      </fill>
+    </d:dxf>
+    <d:dxf xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <font>
+        <color rgb="ff000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="ffffa500"/>
+        </patternFill>
+      </fill>
+    </d:dxf>
+    <d:dxf xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <font>
+        <color rgb="ff000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="ffffff00"/>
+        </patternFill>
+      </fill>
+    </d:dxf>
     <d:dxf xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <font>
         <color rgb="ff000000"/>
@@ -4455,10 +4485,116 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <pivotSource xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+    <c:name>[]VulnScanPivotTable!VulnScanPivotTable</c:name>
+    <c:fmtId val="0"/>
+  </pivotSource>
+  <c:chart>
+    <pivotFmts xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <ser xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>
+              </c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'VulnScanPivotTable'!$A$1</c:f>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'VulnScanPivotTable'!$B$1</c:f>
+              <c:numCache>General</c:numCache>
+            </c:numRef>
+          </c:val>
+        </ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:separator>
+          </c:separator>
+          <c:showLeaderLines val="0"/>
+        </c:dLbls>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="0" name="ChartVulnScanPivotTable"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="SomeUser" refreshedDate="40504.582403125001" createdVersion="1" refreshedVersion="3" recordCount="5" upgradeOnRefresh="1">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:E5225" sheet="Sheet1"/>
+    <worksheetSource ref="A1:E5225" sheet="VulnScan"/>
   </cacheSource>
   <cacheFields count="5">
     <cacheField name="Name" numFmtId="0">
@@ -4485,44 +4621,25 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Sheet1PivotTable" cacheId="1" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" createdVersion="4" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" indent="0" compact="0" compactData="0" gridDropZones="1" rowGrandTotals="1" colGrandTotals="1">
-  <location ref="A3" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="VulnScanPivotTable" cacheId="1" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" createdVersion="4" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" indent="0" compact="0" compactData="0" gridDropZones="1" rowGrandTotals="1" colGrandTotals="1">
+  <location ref="A1" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
-    <pivotField showAll="0" axis="axisRow">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" axis="axisRow" dataField="1">
       <items count="1">
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0" axis="axisRow">
-      <items count="1">
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0" axis="axisPage">
-      <items count="1">
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0" axis="axisRow">
-      <items count="1">
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0" axis="axisRow">
-      <items count="1">
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
   </pivotFields>
   <rowFields>
-    <field x="1"/>
-    <field x="0"/>
-    <field x="4"/>
-    <field x="3"/>
+    <field x="2"/>
   </rowFields>
-  <pageFields>
-    <pageField fld="2" hier="-1"/>
-  </pageFields>
+  <dataFields>
+    <dataField fld="2" subtotal="count" name="Count of Risk"/>
+  </dataFields>
   <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
 </pivotTableDefinition>
 </file>
@@ -93370,6 +93487,15 @@
       <formula>NOT(ISERROR(SEARCH("High",C1)))</formula>
     </cfRule>
     <cfRule priority="3" type="containsText" operator="containsText" text="Medium" dxfId="2">
+      <formula>NOT(ISERROR(SEARCH("Medium",C1)))</formula>
+    </cfRule>
+    <cfRule priority="4" type="containsText" operator="containsText" text="Critical" dxfId="3">
+      <formula>NOT(ISERROR(SEARCH("Critical",C1)))</formula>
+    </cfRule>
+    <cfRule priority="5" type="containsText" operator="containsText" text="High" dxfId="4">
+      <formula>NOT(ISERROR(SEARCH("High",C1)))</formula>
+    </cfRule>
+    <cfRule priority="6" type="containsText" operator="containsText" text="Medium" dxfId="5">
       <formula>NOT(ISERROR(SEARCH("Medium",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -94403,5 +94529,6 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <headerFooter/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>